--- a/Output/conteos/ingresos.xlsx
+++ b/Output/conteos/ingresos.xlsx
@@ -6,8 +6,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Enviados" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Recibidos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Resumen" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Enviados" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Recibidos" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -18,15 +19,15 @@
     <t xml:space="preserve">eess_emisor</t>
   </si>
   <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
     <t xml:space="preserve">2019</t>
   </si>
   <si>
     <t xml:space="preserve">2023</t>
   </si>
   <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hospital El Alto Norte</t>
   </si>
   <si>
@@ -42,28 +43,28 @@
     <t xml:space="preserve">Hospital Municipal Los Andes</t>
   </si>
   <si>
+    <t xml:space="preserve">Hospital Universitario Nuestra Señora  de La Paz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital Villa Dolores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital de Clinicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital de la Mujer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospital del Niño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frecuencia</t>
+  </si>
+  <si>
     <t xml:space="preserve">eess_receptor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frecuencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Universitario Nuestra Señora  de La Paz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital Villa Dolores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital de Clinicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital de la Mujer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hospital del Niño</t>
   </si>
 </sst>
 </file>
@@ -413,36 +414,36 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2"/>
+      <c r="C2" t="n">
         <v>1966</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>2408</v>
       </c>
-      <c r="D2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3"/>
-      <c r="C3" t="n">
+      <c r="C3"/>
+      <c r="D3" t="n">
         <v>1241</v>
       </c>
-      <c r="D3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="n">
+        <v>581</v>
+      </c>
+      <c r="C4" t="n">
         <v>872</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>1459</v>
-      </c>
-      <c r="D4" t="n">
-        <v>581</v>
       </c>
     </row>
     <row r="5">
@@ -450,13 +451,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
+        <v>302</v>
+      </c>
+      <c r="C5" t="n">
         <v>1275</v>
       </c>
-      <c r="C5" t="n">
-        <v>1328</v>
-      </c>
       <c r="D5" t="n">
-        <v>302</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="6">
@@ -464,13 +465,73 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
+        <v>111</v>
+      </c>
+      <c r="C6" t="n">
         <v>186</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
-        <v>111</v>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" t="n">
+        <v>1641</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>780</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1233</v>
+      </c>
+      <c r="D10" t="n">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>168</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1485</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3443</v>
       </c>
     </row>
   </sheetData>
@@ -489,13 +550,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -506,7 +567,7 @@
         <v>2019</v>
       </c>
       <c r="C2" t="n">
-        <v>1270</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3">
@@ -517,7 +578,7 @@
         <v>2023</v>
       </c>
       <c r="C3" t="n">
-        <v>2091</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
@@ -528,12 +589,169 @@
         <v>2023</v>
       </c>
       <c r="C4" t="n">
-        <v>591</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C5" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C6" t="n">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C8" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C11" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C12" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C4" t="n">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>2023</v>
@@ -544,7 +762,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>2023</v>
@@ -555,7 +773,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>2019</v>
@@ -566,7 +784,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
         <v>2023</v>
@@ -577,7 +795,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>2014</v>
@@ -588,7 +806,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n">
         <v>2019</v>
@@ -599,7 +817,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
         <v>2023</v>
@@ -610,7 +828,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" t="n">
         <v>2014</v>
@@ -621,7 +839,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" t="n">
         <v>2019</v>
@@ -632,7 +850,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
         <v>2023</v>
